--- a/Working.xlsx
+++ b/Working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Pooch-Care-Project\Pooch-Care-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CFCF1E-F5F9-45FA-B2EE-085061F6E680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B97019-8441-4717-B170-26F20443A09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B475C192-FC97-40AF-B808-541EA1E8B509}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,6 +566,7 @@
         <v>44847</v>
       </c>
       <c r="H2" s="3">
+        <f>D2</f>
         <v>1</v>
       </c>
       <c r="I2" s="1" t="str">
@@ -594,10 +595,11 @@
         <v>44847</v>
       </c>
       <c r="H3" s="3">
+        <f t="shared" ref="H3:H9" si="1">D3</f>
         <v>1</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I9" si="1">E3</f>
+        <f t="shared" ref="I3:I9" si="2">E3</f>
         <v>Nguyễn Trần Thành Huy</v>
       </c>
       <c r="J3" s="1"/>
@@ -622,10 +624,11 @@
         <v>44847</v>
       </c>
       <c r="H4" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Trần Thành Huy</v>
       </c>
       <c r="J4" s="1"/>
@@ -650,10 +653,11 @@
         <v>44847</v>
       </c>
       <c r="H5" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Trần Thành Huy</v>
       </c>
       <c r="J5" s="1"/>
@@ -664,24 +668,25 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="4">
-        <v>44847</v>
+        <v>44848</v>
       </c>
       <c r="D6" s="3">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="4">
-        <f t="shared" si="0"/>
-        <v>44847</v>
+        <f>C6</f>
+        <v>44848</v>
       </c>
       <c r="H6" s="3">
-        <v>0.6</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Trần Thành Huy</v>
       </c>
       <c r="J6" s="1"/>
@@ -706,10 +711,11 @@
         <v>44846</v>
       </c>
       <c r="H7" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Thức Hải</v>
       </c>
       <c r="J7" s="1"/>
@@ -734,10 +740,11 @@
         <v>44846</v>
       </c>
       <c r="H8" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Thức Hải</v>
       </c>
       <c r="J8" s="1"/>
@@ -762,10 +769,11 @@
         <v>44846</v>
       </c>
       <c r="H9" s="3">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>Nguyễn Thức Hải</v>
       </c>
       <c r="J9" s="1"/>
